--- a/Departments/HIST.xlsx
+++ b/Departments/HIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EE9D52-DCE4-4780-868C-B015A933817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB64FCE-0289-47F9-BD5D-D30654124E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B82E157-E927-4957-93DE-DA3CC78E562D}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="7360" xr2:uid="{5B82E157-E927-4957-93DE-DA3CC78E562D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -1360,6 +1354,12 @@
   </si>
   <si>
     <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1714,7 @@
   <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I178"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1733,4822 +1733,4822 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
         <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
         <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
         <v>87</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
         <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
         <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
         <v>98</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
         <v>101</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
         <v>106</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
         <v>113</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
         <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
         <v>119</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
         <v>122</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
         <v>127</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
         <v>130</v>
       </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
         <v>131</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
         <v>131</v>
-      </c>
-      <c r="D48" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
         <v>136</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" t="s">
         <v>143</v>
       </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
         <v>144</v>
-      </c>
-      <c r="E52" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
         <v>147</v>
-      </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
         <v>150</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
         <v>153</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
         <v>156</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
         <v>159</v>
       </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
         <v>160</v>
-      </c>
-      <c r="E57" t="s">
-        <v>161</v>
-      </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
         <v>163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s">
-        <v>164</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
         <v>166</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
         <v>169</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>170</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>246</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>247</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
         <v>248</v>
-      </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s">
-        <v>249</v>
-      </c>
-      <c r="E99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" t="s">
-        <v>15</v>
-      </c>
-      <c r="I99" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>251</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>252</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
         <v>253</v>
-      </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
-        <v>254</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>257</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
         <v>258</v>
-      </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s">
-        <v>259</v>
-      </c>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>259</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>260</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
         <v>261</v>
-      </c>
-      <c r="B104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s">
-        <v>262</v>
-      </c>
-      <c r="E104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
         <v>264</v>
-      </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s">
-        <v>265</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>265</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>266</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
         <v>267</v>
-      </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s">
-        <v>268</v>
-      </c>
-      <c r="E106" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>270</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>271</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
         <v>272</v>
-      </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s">
-        <v>273</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" t="s">
-        <v>15</v>
-      </c>
-      <c r="I108" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>273</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>274</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
         <v>275</v>
-      </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s">
-        <v>276</v>
-      </c>
-      <c r="E109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>278</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>279</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
         <v>280</v>
-      </c>
-      <c r="B111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s">
-        <v>281</v>
-      </c>
-      <c r="E111" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>281</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>282</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
         <v>283</v>
-      </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s">
-        <v>284</v>
-      </c>
-      <c r="E112" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>284</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>285</v>
+      </c>
+      <c r="E113" t="s">
         <v>286</v>
       </c>
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
         <v>287</v>
-      </c>
-      <c r="E113" t="s">
-        <v>288</v>
-      </c>
-      <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" t="s">
-        <v>15</v>
-      </c>
-      <c r="I113" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>290</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>291</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
         <v>292</v>
-      </c>
-      <c r="B115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s">
-        <v>293</v>
-      </c>
-      <c r="E115" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>297</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>298</v>
+      </c>
+      <c r="E118" t="s">
         <v>299</v>
       </c>
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
         <v>300</v>
-      </c>
-      <c r="E118" t="s">
-        <v>301</v>
-      </c>
-      <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" t="s">
-        <v>15</v>
-      </c>
-      <c r="I118" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>301</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>302</v>
+      </c>
+      <c r="E119" t="s">
         <v>303</v>
       </c>
-      <c r="B119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
         <v>304</v>
-      </c>
-      <c r="E119" t="s">
-        <v>305</v>
-      </c>
-      <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" t="s">
-        <v>15</v>
-      </c>
-      <c r="I119" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>305</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>306</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" t="s">
         <v>307</v>
-      </c>
-      <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s">
-        <v>308</v>
-      </c>
-      <c r="E120" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" t="s">
-        <v>15</v>
-      </c>
-      <c r="I120" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>308</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
         <v>310</v>
-      </c>
-      <c r="B121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s">
-        <v>311</v>
-      </c>
-      <c r="E121" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" t="s">
-        <v>15</v>
-      </c>
-      <c r="I121" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>311</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>312</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
         <v>313</v>
-      </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s">
-        <v>314</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" t="s">
-        <v>15</v>
-      </c>
-      <c r="I122" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>314</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>315</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" t="s">
         <v>316</v>
-      </c>
-      <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s">
-        <v>317</v>
-      </c>
-      <c r="E123" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" t="s">
-        <v>15</v>
-      </c>
-      <c r="I123" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>319</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>320</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
         <v>321</v>
-      </c>
-      <c r="B125" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s">
-        <v>322</v>
-      </c>
-      <c r="E125" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I125" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>324</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>325</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" t="s">
         <v>326</v>
-      </c>
-      <c r="B127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s">
-        <v>327</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" t="s">
-        <v>15</v>
-      </c>
-      <c r="I127" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>329</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>330</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" t="s">
         <v>331</v>
-      </c>
-      <c r="B129" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s">
-        <v>332</v>
-      </c>
-      <c r="E129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" t="s">
-        <v>15</v>
-      </c>
-      <c r="I129" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>332</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>333</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
         <v>334</v>
-      </c>
-      <c r="B130" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s">
-        <v>335</v>
-      </c>
-      <c r="E130" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" t="s">
-        <v>15</v>
-      </c>
-      <c r="I130" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>335</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>336</v>
+      </c>
+      <c r="E131" t="s">
+        <v>47</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
         <v>337</v>
-      </c>
-      <c r="B131" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s">
-        <v>338</v>
-      </c>
-      <c r="E131" t="s">
-        <v>49</v>
-      </c>
-      <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" t="s">
-        <v>15</v>
-      </c>
-      <c r="I131" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>338</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>339</v>
+      </c>
+      <c r="E132" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" t="s">
         <v>340</v>
-      </c>
-      <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s">
-        <v>341</v>
-      </c>
-      <c r="E132" t="s">
-        <v>49</v>
-      </c>
-      <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" t="s">
-        <v>15</v>
-      </c>
-      <c r="I132" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E133" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I133" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>343</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>344</v>
+      </c>
+      <c r="E134" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
         <v>345</v>
-      </c>
-      <c r="B134" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s">
-        <v>346</v>
-      </c>
-      <c r="E134" t="s">
-        <v>49</v>
-      </c>
-      <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" t="s">
-        <v>15</v>
-      </c>
-      <c r="I134" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>346</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>347</v>
+      </c>
+      <c r="E135" t="s">
+        <v>47</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" t="s">
         <v>348</v>
-      </c>
-      <c r="B135" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s">
-        <v>349</v>
-      </c>
-      <c r="E135" t="s">
-        <v>49</v>
-      </c>
-      <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" t="s">
-        <v>15</v>
-      </c>
-      <c r="I135" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>351</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>352</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" t="s">
         <v>353</v>
-      </c>
-      <c r="B137" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s">
-        <v>354</v>
-      </c>
-      <c r="E137" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s">
-        <v>14</v>
-      </c>
-      <c r="H137" t="s">
-        <v>15</v>
-      </c>
-      <c r="I137" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G144" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G149" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>384</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>129</v>
+      </c>
+      <c r="D153" t="s">
+        <v>385</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>131</v>
+      </c>
+      <c r="I153" t="s">
         <v>386</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>131</v>
-      </c>
-      <c r="D153" t="s">
-        <v>387</v>
-      </c>
-      <c r="E153" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" t="s">
-        <v>14</v>
-      </c>
-      <c r="H153" t="s">
-        <v>133</v>
-      </c>
-      <c r="I153" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
+        <v>129</v>
+      </c>
+      <c r="D154" t="s">
+        <v>388</v>
+      </c>
+      <c r="E154" t="s">
+        <v>47</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="s">
         <v>131</v>
-      </c>
-      <c r="D154" t="s">
-        <v>390</v>
-      </c>
-      <c r="E154" t="s">
-        <v>49</v>
-      </c>
-      <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" t="s">
-        <v>14</v>
-      </c>
-      <c r="H154" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G162" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G164" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H164" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G165" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G167" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G168" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H168" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>423</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>424</v>
+      </c>
+      <c r="E172" t="s">
+        <v>47</v>
+      </c>
+      <c r="F172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s">
         <v>425</v>
-      </c>
-      <c r="B172" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s">
-        <v>426</v>
-      </c>
-      <c r="E172" t="s">
-        <v>49</v>
-      </c>
-      <c r="F172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" t="s">
-        <v>14</v>
-      </c>
-      <c r="H172" t="s">
-        <v>15</v>
-      </c>
-      <c r="I172" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G173" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H174" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G176" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H176" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
+        <v>436</v>
+      </c>
+      <c r="D178" t="s">
+        <v>437</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" t="s">
+        <v>436</v>
+      </c>
+      <c r="H178" t="s">
         <v>438</v>
-      </c>
-      <c r="D178" t="s">
-        <v>439</v>
-      </c>
-      <c r="E178" t="s">
-        <v>13</v>
-      </c>
-      <c r="F178" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" t="s">
-        <v>438</v>
-      </c>
-      <c r="H178" t="s">
-        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/HIST.xlsx
+++ b/Departments/HIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB64FCE-0289-47F9-BD5D-D30654124E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFBACDB-2046-4E2F-89B0-980B120A9506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="7360" xr2:uid="{5B82E157-E927-4957-93DE-DA3CC78E562D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5B82E157-E927-4957-93DE-DA3CC78E562D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="444">
   <si>
     <t>Course_Code</t>
   </si>
@@ -591,12 +591,6 @@
     <t>HIST 843 - Themes in United States History</t>
   </si>
   <si>
-    <t>HIST845</t>
-  </si>
-  <si>
-    <t>HIST 845 - Themes in Latin American History</t>
-  </si>
-  <si>
     <t>HIST853</t>
   </si>
   <si>
@@ -804,9 +798,6 @@
     <t>HIST332</t>
   </si>
   <si>
-    <t>HIST 332 - Politics and Culture in Modern Germany</t>
-  </si>
-  <si>
     <t>HIST334</t>
   </si>
   <si>
@@ -1197,9 +1188,6 @@
     <t>HUM 305 - Medieval Studies</t>
   </si>
   <si>
-    <t>REQ-45 units. Breadth-Humanities.</t>
-  </si>
-  <si>
     <t>HUM312W</t>
   </si>
   <si>
@@ -1360,6 +1348,27 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>HIST138</t>
+  </si>
+  <si>
+    <t>HIST 138 - Centuries of Genocide</t>
+  </si>
+  <si>
+    <t>HIST303</t>
+  </si>
+  <si>
+    <t>HIST 303 - STT-Critical Information Literacy in the Humanities and Social Sciences</t>
+  </si>
+  <si>
+    <t>REQ-45 units. Students with credit for FASS 303 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>HIST 332 - Politics and Culture in Modern Twentieth-Century Germany</t>
+  </si>
+  <si>
+    <t>REQ-45 units including nine units of lower division history. Recommended: HIST 101, 102W, 204.</t>
   </si>
 </sst>
 </file>
@@ -1711,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5532209A-367C-4D48-8CD5-9E8D00B34CA5}">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1733,10 +1742,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1750,16 +1759,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>432</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1768,15 +1777,15 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1785,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1802,7 +1811,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1811,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1828,7 +1837,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1837,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1854,7 +1863,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1863,10 +1872,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>390</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1880,7 +1889,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1889,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>392</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1906,7 +1915,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1915,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>394</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1932,7 +1941,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1941,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>396</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1958,7 +1967,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1967,7 +1976,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1980,14 +1989,11 @@
       </c>
       <c r="H10" t="s">
         <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1996,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -2013,7 +2019,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2022,7 +2028,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>398</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -2035,14 +2041,11 @@
       </c>
       <c r="H12" t="s">
         <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2051,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -2064,14 +2067,11 @@
       </c>
       <c r="H13" t="s">
         <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>437</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2080,7 +2080,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -2093,14 +2093,11 @@
       </c>
       <c r="H14" t="s">
         <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2109,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>402</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -2122,14 +2119,11 @@
       </c>
       <c r="H15" t="s">
         <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2138,10 +2132,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>404</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -2151,14 +2145,11 @@
       </c>
       <c r="H16" t="s">
         <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>405</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2167,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>406</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -2184,7 +2175,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -2193,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>408</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -2206,14 +2197,11 @@
       </c>
       <c r="H18" t="s">
         <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2222,7 +2210,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>386</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -2235,14 +2223,11 @@
       </c>
       <c r="H19" t="s">
         <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -2251,7 +2236,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -2268,7 +2253,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2277,10 +2262,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -2290,14 +2275,11 @@
       </c>
       <c r="H21" t="s">
         <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>409</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -2306,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>410</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -2319,14 +2301,11 @@
       </c>
       <c r="H22" t="s">
         <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -2335,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -2352,7 +2331,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>413</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -2361,7 +2340,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>414</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -2378,7 +2357,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>415</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2387,7 +2366,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>416</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -2400,14 +2379,11 @@
       </c>
       <c r="H25" t="s">
         <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -2416,10 +2392,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2429,14 +2405,11 @@
       </c>
       <c r="H26" t="s">
         <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>417</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2445,7 +2418,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -2458,14 +2431,11 @@
       </c>
       <c r="H27" t="s">
         <v>13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -2474,10 +2444,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -2487,14 +2457,11 @@
       </c>
       <c r="H28" t="s">
         <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -2503,10 +2470,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -2516,11 +2483,14 @@
       </c>
       <c r="H29" t="s">
         <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -2529,7 +2499,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -2546,7 +2516,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>422</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -2555,7 +2525,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>423</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -2568,14 +2538,11 @@
       </c>
       <c r="H31" t="s">
         <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>424</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -2584,10 +2551,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>425</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -2598,13 +2565,10 @@
       <c r="H32" t="s">
         <v>13</v>
       </c>
-      <c r="I32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -2613,10 +2577,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -2627,13 +2591,10 @@
       <c r="H33" t="s">
         <v>13</v>
       </c>
-      <c r="I33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -2642,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -2657,9 +2618,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -2668,7 +2629,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -2682,13 +2643,10 @@
       <c r="H35" t="s">
         <v>13</v>
       </c>
-      <c r="I35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2697,10 +2655,10 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -2711,13 +2669,10 @@
       <c r="H36" t="s">
         <v>13</v>
       </c>
-      <c r="I36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2726,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -2740,13 +2695,10 @@
       <c r="H37" t="s">
         <v>13</v>
       </c>
-      <c r="I37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2755,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -2769,13 +2721,10 @@
       <c r="H38" t="s">
         <v>13</v>
       </c>
-      <c r="I38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2784,10 +2733,10 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -2799,9 +2748,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>426</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2810,7 +2759,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -2825,9 +2774,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>428</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -2836,7 +2785,7 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>429</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -2850,13 +2799,10 @@
       <c r="H41" t="s">
         <v>13</v>
       </c>
-      <c r="I41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2865,10 +2811,10 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2879,13 +2825,10 @@
       <c r="H42" t="s">
         <v>13</v>
       </c>
-      <c r="I42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2894,10 +2837,10 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -2908,13 +2851,10 @@
       <c r="H43" t="s">
         <v>13</v>
       </c>
-      <c r="I43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2923,10 +2863,10 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2937,13 +2877,10 @@
       <c r="H44" t="s">
         <v>13</v>
       </c>
-      <c r="I44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2952,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>431</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -2967,9 +2904,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2978,10 +2915,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -2992,22 +2929,19 @@
       <c r="H46" t="s">
         <v>13</v>
       </c>
-      <c r="I46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -3019,21 +2953,21 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -3045,12 +2979,12 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -3059,7 +2993,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -3072,14 +3006,11 @@
       </c>
       <c r="H49" t="s">
         <v>13</v>
-      </c>
-      <c r="I49" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -3088,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -3101,14 +3032,11 @@
       </c>
       <c r="H50" t="s">
         <v>13</v>
-      </c>
-      <c r="I50" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -3117,7 +3045,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -3134,7 +3062,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -3143,10 +3071,10 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -3156,14 +3084,11 @@
       </c>
       <c r="H52" t="s">
         <v>13</v>
-      </c>
-      <c r="I52" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -3172,10 +3097,10 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -3185,14 +3110,11 @@
       </c>
       <c r="H53" t="s">
         <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -3201,7 +3123,7 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>440</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -3216,12 +3138,12 @@
         <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>150</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -3230,10 +3152,10 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
@@ -3245,12 +3167,12 @@
         <v>13</v>
       </c>
       <c r="I55" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -3259,7 +3181,7 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -3274,12 +3196,12 @@
         <v>13</v>
       </c>
       <c r="I56" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -3288,10 +3210,10 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -3301,14 +3223,11 @@
       </c>
       <c r="H57" t="s">
         <v>13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -3317,7 +3236,7 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -3330,14 +3249,11 @@
       </c>
       <c r="H58" t="s">
         <v>13</v>
-      </c>
-      <c r="I58" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -3346,7 +3262,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -3361,12 +3277,12 @@
         <v>13</v>
       </c>
       <c r="I59" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -3375,7 +3291,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -3390,12 +3306,12 @@
         <v>13</v>
       </c>
       <c r="I60" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -3404,7 +3320,7 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -3417,11 +3333,14 @@
       </c>
       <c r="H61" t="s">
         <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -3430,7 +3349,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -3443,11 +3362,14 @@
       </c>
       <c r="H62" t="s">
         <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -3456,7 +3378,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -3469,11 +3391,14 @@
       </c>
       <c r="H63" t="s">
         <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -3482,10 +3407,10 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -3496,10 +3421,13 @@
       <c r="H64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -3508,7 +3436,7 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>442</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -3523,9 +3451,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -3534,7 +3462,7 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -3548,10 +3476,13 @@
       <c r="H66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -3560,7 +3491,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -3575,9 +3506,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -3586,7 +3517,7 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -3600,10 +3531,13 @@
       <c r="H68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -3612,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -3626,10 +3560,13 @@
       <c r="H69" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -3638,7 +3575,7 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -3652,10 +3589,13 @@
       <c r="H70" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -3664,7 +3604,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -3679,9 +3619,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -3690,10 +3630,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -3704,10 +3644,13 @@
       <c r="H72" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -3716,7 +3659,7 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -3730,10 +3673,13 @@
       <c r="H73" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3742,7 +3688,7 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -3756,10 +3702,13 @@
       <c r="H74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -3768,7 +3717,7 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -3782,10 +3731,13 @@
       <c r="H75" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -3794,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -3809,9 +3761,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -3820,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -3835,9 +3787,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -3846,7 +3798,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -3861,9 +3813,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -3872,7 +3824,7 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -3886,10 +3838,13 @@
       <c r="H79" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I79" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -3898,7 +3853,7 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -3912,10 +3867,13 @@
       <c r="H80" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I80" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -3924,7 +3882,7 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -3939,9 +3897,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -3950,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -3964,10 +3922,13 @@
       <c r="H82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -3976,7 +3937,7 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -3990,10 +3951,13 @@
       <c r="H83" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -4002,10 +3966,10 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
@@ -4016,10 +3980,13 @@
       <c r="H84" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -4028,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -4042,10 +4009,13 @@
       <c r="H85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I85" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -4054,7 +4024,7 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -4068,10 +4038,13 @@
       <c r="H86" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -4080,10 +4053,10 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="F87" t="s">
         <v>11</v>
@@ -4094,10 +4067,13 @@
       <c r="H87" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I87" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -4106,10 +4082,10 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
@@ -4120,10 +4096,13 @@
       <c r="H88" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -4132,7 +4111,7 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -4147,9 +4126,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -4158,7 +4137,7 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -4172,10 +4151,13 @@
       <c r="H90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I90" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -4184,7 +4166,7 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -4199,9 +4181,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -4210,7 +4192,7 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -4225,9 +4207,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -4236,7 +4218,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -4251,9 +4233,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -4262,7 +4244,7 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -4277,9 +4259,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -4288,10 +4270,10 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
@@ -4302,10 +4284,13 @@
       <c r="H95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I95" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -4314,10 +4299,10 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
@@ -4327,11 +4312,14 @@
       </c>
       <c r="H96" t="s">
         <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -4340,7 +4328,7 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -4353,11 +4341,14 @@
       </c>
       <c r="H97" t="s">
         <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -4366,7 +4357,7 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -4379,11 +4370,14 @@
       </c>
       <c r="H98" t="s">
         <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -4392,7 +4386,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -4407,12 +4401,12 @@
         <v>13</v>
       </c>
       <c r="I99" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>249</v>
+        <v>85</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -4421,7 +4415,7 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -4434,11 +4428,14 @@
       </c>
       <c r="H100" t="s">
         <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -4447,10 +4444,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
         <v>11</v>
@@ -4462,12 +4459,12 @@
         <v>13</v>
       </c>
       <c r="I101" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -4476,10 +4473,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
@@ -4489,11 +4486,14 @@
       </c>
       <c r="H102" t="s">
         <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -4502,7 +4502,7 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>257</v>
+        <v>95</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -4515,14 +4515,11 @@
       </c>
       <c r="H103" t="s">
         <v>13</v>
-      </c>
-      <c r="I103" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -4531,7 +4528,7 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -4546,12 +4543,12 @@
         <v>13</v>
       </c>
       <c r="I104" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>262</v>
+        <v>96</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -4560,7 +4557,7 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -4575,12 +4572,12 @@
         <v>13</v>
       </c>
       <c r="I105" t="s">
-        <v>264</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -4589,10 +4586,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
         <v>11</v>
@@ -4604,12 +4601,12 @@
         <v>13</v>
       </c>
       <c r="I106" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -4618,7 +4615,7 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -4635,7 +4632,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -4644,7 +4641,7 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -4659,12 +4656,12 @@
         <v>13</v>
       </c>
       <c r="I108" t="s">
-        <v>272</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -4673,7 +4670,7 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -4688,12 +4685,12 @@
         <v>13</v>
       </c>
       <c r="I109" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -4702,7 +4699,7 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>105</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -4715,11 +4712,14 @@
       </c>
       <c r="H110" t="s">
         <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -4728,7 +4728,7 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -4741,14 +4741,11 @@
       </c>
       <c r="H111" t="s">
         <v>13</v>
-      </c>
-      <c r="I111" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -4757,7 +4754,7 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -4772,12 +4769,12 @@
         <v>13</v>
       </c>
       <c r="I112" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -4786,10 +4783,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
@@ -4799,14 +4796,11 @@
       </c>
       <c r="H113" t="s">
         <v>13</v>
-      </c>
-      <c r="I113" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -4815,7 +4809,7 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>289</v>
+        <v>110</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -4832,7 +4826,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -4841,7 +4835,7 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -4856,12 +4850,12 @@
         <v>13</v>
       </c>
       <c r="I115" t="s">
-        <v>292</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>293</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -4870,10 +4864,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F116" t="s">
         <v>11</v>
@@ -4883,11 +4877,14 @@
       </c>
       <c r="H116" t="s">
         <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -4896,7 +4893,7 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -4913,7 +4910,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>297</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -4922,10 +4919,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>298</v>
+        <v>118</v>
       </c>
       <c r="E118" t="s">
-        <v>299</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
         <v>11</v>
@@ -4937,12 +4934,12 @@
         <v>13</v>
       </c>
       <c r="I118" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>301</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -4951,10 +4948,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>302</v>
+        <v>121</v>
       </c>
       <c r="E119" t="s">
-        <v>303</v>
+        <v>47</v>
       </c>
       <c r="F119" t="s">
         <v>11</v>
@@ -4966,12 +4963,12 @@
         <v>13</v>
       </c>
       <c r="I119" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -4980,7 +4977,7 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>306</v>
+        <v>124</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -4993,14 +4990,11 @@
       </c>
       <c r="H120" t="s">
         <v>13</v>
-      </c>
-      <c r="I120" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
@@ -5009,7 +5003,7 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -5024,12 +5018,12 @@
         <v>13</v>
       </c>
       <c r="I121" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>311</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -5038,10 +5032,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F122" t="s">
         <v>11</v>
@@ -5053,12 +5047,12 @@
         <v>13</v>
       </c>
       <c r="I122" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>314</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
@@ -5067,7 +5061,7 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -5082,12 +5076,12 @@
         <v>13</v>
       </c>
       <c r="I123" t="s">
-        <v>316</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>317</v>
+        <v>137</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -5096,7 +5090,7 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>318</v>
+        <v>138</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -5109,11 +5103,14 @@
       </c>
       <c r="H124" t="s">
         <v>13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -5122,7 +5119,7 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -5137,12 +5134,12 @@
         <v>13</v>
       </c>
       <c r="I125" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -5151,10 +5148,10 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F126" t="s">
         <v>11</v>
@@ -5164,11 +5161,14 @@
       </c>
       <c r="H126" t="s">
         <v>13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -5177,10 +5177,10 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
         <v>11</v>
@@ -5192,12 +5192,12 @@
         <v>13</v>
       </c>
       <c r="I127" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>327</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -5206,7 +5206,7 @@
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -5232,10 +5232,10 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="F129" t="s">
         <v>11</v>
@@ -5247,12 +5247,12 @@
         <v>13</v>
       </c>
       <c r="I129" t="s">
-        <v>331</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>332</v>
+        <v>141</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -5261,10 +5261,10 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>333</v>
+        <v>142</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
@@ -5276,12 +5276,12 @@
         <v>13</v>
       </c>
       <c r="I130" t="s">
-        <v>334</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>335</v>
+        <v>145</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -5290,7 +5290,7 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="E131" t="s">
         <v>47</v>
@@ -5305,12 +5305,12 @@
         <v>13</v>
       </c>
       <c r="I131" t="s">
-        <v>337</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>338</v>
+        <v>148</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -5319,10 +5319,10 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>339</v>
+        <v>149</v>
       </c>
       <c r="E132" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
         <v>11</v>
@@ -5334,41 +5334,41 @@
         <v>13</v>
       </c>
       <c r="I132" t="s">
-        <v>340</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>340</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
         <v>341</v>
       </c>
-      <c r="B133" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
+        <v>47</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
         <v>342</v>
-      </c>
-      <c r="E133" t="s">
-        <v>143</v>
-      </c>
-      <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" t="s">
-        <v>13</v>
-      </c>
-      <c r="I133" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>343</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -5377,7 +5377,7 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>344</v>
+        <v>152</v>
       </c>
       <c r="E134" t="s">
         <v>47</v>
@@ -5392,12 +5392,12 @@
         <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>345</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -5406,7 +5406,7 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E135" t="s">
         <v>47</v>
@@ -5421,12 +5421,12 @@
         <v>13</v>
       </c>
       <c r="I135" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>349</v>
+        <v>154</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -5435,7 +5435,7 @@
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -5448,11 +5448,14 @@
       </c>
       <c r="H136" t="s">
         <v>13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>351</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -5461,10 +5464,10 @@
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>352</v>
+        <v>158</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="F137" t="s">
         <v>11</v>
@@ -5476,12 +5479,12 @@
         <v>13</v>
       </c>
       <c r="I137" t="s">
-        <v>353</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -5490,7 +5493,7 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -5507,7 +5510,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>356</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -5516,7 +5519,7 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>357</v>
+        <v>162</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -5529,11 +5532,14 @@
       </c>
       <c r="H139" t="s">
         <v>13</v>
+      </c>
+      <c r="I139" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -5542,7 +5548,7 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -5555,11 +5561,14 @@
       </c>
       <c r="H140" t="s">
         <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>360</v>
+        <v>164</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -5568,7 +5577,7 @@
         <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -5581,11 +5590,14 @@
       </c>
       <c r="H141" t="s">
         <v>13</v>
+      </c>
+      <c r="I141" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -5594,7 +5606,7 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>363</v>
+        <v>168</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -5607,11 +5619,14 @@
       </c>
       <c r="H142" t="s">
         <v>13</v>
+      </c>
+      <c r="I142" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -5620,7 +5635,7 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>365</v>
+        <v>171</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -5637,880 +5652,874 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>351</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>352</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>353</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>354</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>173</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>175</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>177</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>355</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" t="s">
+        <v>356</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>178</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>179</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>357</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>358</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>181</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>182</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>183</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>359</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>360</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>185</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>361</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>362</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>186</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>187</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>363</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>364</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>188</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>189</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>365</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" t="s">
         <v>366</v>
       </c>
-      <c r="B144" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>367</v>
       </c>
-      <c r="E144" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
-      <c r="H144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" t="s">
         <v>368</v>
       </c>
-      <c r="B145" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>190</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>191</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>369</v>
       </c>
-      <c r="E145" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
         <v>370</v>
       </c>
-      <c r="B146" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>192</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>193</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>371</v>
       </c>
-      <c r="E146" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" t="s">
         <v>372</v>
       </c>
-      <c r="B147" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>194</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>195</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>196</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>197</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>198</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>199</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>373</v>
       </c>
-      <c r="E147" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
         <v>374</v>
       </c>
-      <c r="B148" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>201</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>202</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>203</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>375</v>
       </c>
-      <c r="E148" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
         <v>376</v>
       </c>
-      <c r="B149" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>377</v>
       </c>
-      <c r="E149" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
-      <c r="H149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
         <v>378</v>
       </c>
-      <c r="B150" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="E173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>205</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>379</v>
       </c>
-      <c r="E150" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" t="s">
         <v>380</v>
       </c>
-      <c r="B151" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" t="s">
-        <v>381</v>
-      </c>
-      <c r="E151" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>382</v>
-      </c>
-      <c r="B152" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" t="s">
-        <v>383</v>
-      </c>
-      <c r="E152" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>384</v>
-      </c>
-      <c r="B153" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>128</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
         <v>129</v>
       </c>
-      <c r="D153" t="s">
-        <v>385</v>
-      </c>
-      <c r="E153" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="D176" t="s">
+        <v>130</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" t="s">
         <v>131</v>
-      </c>
-      <c r="I153" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>387</v>
-      </c>
-      <c r="B154" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" t="s">
-        <v>129</v>
-      </c>
-      <c r="D154" t="s">
-        <v>388</v>
-      </c>
-      <c r="E154" t="s">
-        <v>47</v>
-      </c>
-      <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
-      <c r="H154" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>389</v>
-      </c>
-      <c r="B155" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" t="s">
-        <v>390</v>
-      </c>
-      <c r="E155" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>391</v>
-      </c>
-      <c r="B156" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" t="s">
-        <v>392</v>
-      </c>
-      <c r="E156" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
-      <c r="H156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>393</v>
-      </c>
-      <c r="B157" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" t="s">
-        <v>394</v>
-      </c>
-      <c r="E157" t="s">
-        <v>47</v>
-      </c>
-      <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
-      <c r="H157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>395</v>
-      </c>
-      <c r="B158" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" t="s">
-        <v>396</v>
-      </c>
-      <c r="E158" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
-      <c r="H158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>397</v>
-      </c>
-      <c r="B159" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" t="s">
-        <v>398</v>
-      </c>
-      <c r="E159" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
-      <c r="H159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>399</v>
-      </c>
-      <c r="B160" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" t="s">
-        <v>400</v>
-      </c>
-      <c r="E160" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>401</v>
-      </c>
-      <c r="B161" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" t="s">
-        <v>402</v>
-      </c>
-      <c r="E161" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
-      <c r="H161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>403</v>
-      </c>
-      <c r="B162" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" t="s">
-        <v>404</v>
-      </c>
-      <c r="E162" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
-      <c r="H162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>405</v>
-      </c>
-      <c r="B163" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" t="s">
-        <v>406</v>
-      </c>
-      <c r="E163" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
-      <c r="H163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>407</v>
-      </c>
-      <c r="B164" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" t="s">
-        <v>408</v>
-      </c>
-      <c r="E164" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
-      <c r="H164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>409</v>
-      </c>
-      <c r="B165" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" t="s">
-        <v>410</v>
-      </c>
-      <c r="E165" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
-      <c r="H165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>411</v>
-      </c>
-      <c r="B166" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" t="s">
-        <v>412</v>
-      </c>
-      <c r="E166" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
-      <c r="H166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>413</v>
-      </c>
-      <c r="B167" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" t="s">
-        <v>414</v>
-      </c>
-      <c r="E167" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
-      <c r="H167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>415</v>
-      </c>
-      <c r="B168" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" t="s">
-        <v>416</v>
-      </c>
-      <c r="E168" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
-      <c r="H168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>417</v>
-      </c>
-      <c r="B169" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" t="s">
-        <v>418</v>
-      </c>
-      <c r="E169" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
-      <c r="H169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>419</v>
-      </c>
-      <c r="B170" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" t="s">
-        <v>420</v>
-      </c>
-      <c r="E170" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
-      <c r="H170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>421</v>
-      </c>
-      <c r="B171" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" t="s">
-        <v>422</v>
-      </c>
-      <c r="E171" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
-      <c r="H171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>423</v>
-      </c>
-      <c r="B172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" t="s">
-        <v>424</v>
-      </c>
-      <c r="E172" t="s">
-        <v>47</v>
-      </c>
-      <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
-      <c r="H172" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>426</v>
-      </c>
-      <c r="B173" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" t="s">
-        <v>427</v>
-      </c>
-      <c r="E173" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
-      <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>428</v>
-      </c>
-      <c r="B174" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" t="s">
-        <v>429</v>
-      </c>
-      <c r="E174" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
-      <c r="H174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>430</v>
-      </c>
-      <c r="B175" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" t="s">
-        <v>431</v>
-      </c>
-      <c r="E175" t="s">
-        <v>11</v>
-      </c>
-      <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
-      <c r="H175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>432</v>
-      </c>
-      <c r="B176" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" t="s">
-        <v>433</v>
-      </c>
-      <c r="E176" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
-      <c r="H176" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D177" t="s">
-        <v>435</v>
+        <v>382</v>
       </c>
       <c r="E177" t="s">
         <v>11</v>
@@ -6522,33 +6531,59 @@
         <v>12</v>
       </c>
       <c r="H177" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>132</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>129</v>
+      </c>
+      <c r="D178" t="s">
+        <v>133</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>383</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>129</v>
+      </c>
+      <c r="D179" t="s">
+        <v>384</v>
+      </c>
+      <c r="E179" t="s">
         <v>47</v>
       </c>
-      <c r="B178" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" t="s">
-        <v>436</v>
-      </c>
-      <c r="D178" t="s">
-        <v>437</v>
-      </c>
-      <c r="E178" t="s">
-        <v>11</v>
-      </c>
-      <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s">
-        <v>436</v>
-      </c>
-      <c r="H178" t="s">
-        <v>438</v>
+      <c r="F179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
